--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43163,6 +43163,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43274,6 +43274,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>50100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43309,6 +43309,41 @@
         <v>50100</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43344,6 +43344,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43379,6 +43379,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43488,6 +43488,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43560,6 +43560,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43595,6 +43595,76 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2217300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,78 @@
         <v>2217300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43774,6 +43774,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>532600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,78 @@
         <v>532600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,41 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>741000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89766,6 +89766,41 @@
         <v>741000</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>260400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89801,6 +89801,41 @@
         <v>260400</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>280300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89836,6 +89836,41 @@
         <v>280300</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>159300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89871,6 +89871,41 @@
         <v>159300</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>3328800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89906,6 +89906,41 @@
         <v>3328800</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89941,6 +89941,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>142000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89976,6 +89976,41 @@
         <v>142000</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>9100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90011,6 +90011,41 @@
         <v>9100</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90046,6 +90046,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>133000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90081,6 +90081,41 @@
         <v>133000</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90116,6 +90116,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2549" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90153,6 +90153,41 @@
         </is>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90188,6 +90188,43 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2551" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90225,6 +90225,43 @@
         </is>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2552" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8648.xlsx
+++ b/data/8648.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90262,6 +90262,43 @@
         </is>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>JASKITA</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2553" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
